--- a/biology/Botanique/Solanum_ayacuchense/Solanum_ayacuchense.xlsx
+++ b/biology/Botanique/Solanum_ayacuchense/Solanum_ayacuchense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Solanum ayacuchense (syn. Solanum tarijense) est une espèce de plante herbacée tubéreuse appartenant au genre Solanum et à la famille des Solanacées, originaire des Andes.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce endémique du Pérou, présente seulement dans la localité type de Yanta Yanta, dans le nord-est de la région d'Ayacucho. On la trouve dans des maquis (matorrales) arbustifs entre 2800 et 3000 mètres d'altitude. La plante est devenue rare dans une zone où la végétation naturelle est très menacée par l'activité humaine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce endémique du Pérou, présente seulement dans la localité type de Yanta Yanta, dans le nord-est de la région d'Ayacucho. On la trouve dans des maquis (matorrales) arbustifs entre 2800 et 3000 mètres d'altitude. La plante est devenue rare dans une zone où la végétation naturelle est très menacée par l'activité humaine.
 </t>
         </is>
       </c>
